--- a/x-ignore/XSLT/XSLT Elements-review.xlsx
+++ b/x-ignore/XSLT/XSLT Elements-review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="24840" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24760" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,6 +441,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,7 +497,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -536,6 +542,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -875,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1258,7 +1267,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="24">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1277,7 +1286,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -1294,7 +1303,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1311,7 +1320,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -1326,7 +1335,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -1343,7 +1352,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1360,7 +1369,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="24">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -1379,7 +1388,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="48">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>72</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -1400,7 +1409,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="24">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -1415,7 +1424,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -1432,7 +1441,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -1474,7 +1483,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -1508,7 +1517,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="24">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B36" s="6" t="s">

--- a/x-ignore/XSLT/XSLT Elements-review.xlsx
+++ b/x-ignore/XSLT/XSLT Elements-review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24760" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24780" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -534,9 +534,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -884,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -923,7 +920,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="24">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -942,7 +939,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="24">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -957,7 +954,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="24">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -972,7 +969,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="24">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -987,7 +984,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="132">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1006,7 +1003,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="48">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1029,7 +1026,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1044,7 +1041,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="24">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1059,7 +1056,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1074,7 +1071,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="24">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1089,7 +1086,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="84">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1112,7 +1109,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="24">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1131,7 +1128,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="24">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1150,7 +1147,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1167,7 +1164,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="24">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1186,7 +1183,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1203,7 +1200,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="24">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1218,7 +1215,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="36">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -1235,7 +1232,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1250,7 +1247,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -1267,7 +1264,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="24">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1286,7 +1283,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -1303,7 +1300,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1320,7 +1317,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -1335,7 +1332,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -1352,7 +1349,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1369,7 +1366,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="24">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -1388,7 +1385,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="48">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -1409,7 +1406,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="24">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -1424,7 +1421,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -1441,7 +1438,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -1460,7 +1457,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="120">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -1483,7 +1480,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -1498,7 +1495,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="36">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -1517,7 +1514,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="24">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>92</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -1532,7 +1529,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="24">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -1547,7 +1544,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -1562,7 +1559,7 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -1577,7 +1574,7 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="14" t="s">
         <v>98</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -1594,7 +1591,7 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -1609,7 +1606,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="36">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="14" t="s">
         <v>101</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -1628,7 +1625,7 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="14" t="s">
         <v>105</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -1645,7 +1642,7 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -1660,7 +1657,7 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="14" t="s">
         <v>110</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -1675,7 +1672,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="24">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="15" t="s">
         <v>111</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -1690,7 +1687,7 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="14" t="s">
         <v>113</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -1705,7 +1702,7 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="14" t="s">
         <v>114</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -1720,7 +1717,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="24">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="15" t="s">
         <v>115</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -1737,7 +1734,7 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="14" t="s">
         <v>118</v>
       </c>
       <c r="B50" s="6" t="s">

--- a/x-ignore/XSLT/XSLT Elements-review.xlsx
+++ b/x-ignore/XSLT/XSLT Elements-review.xlsx
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1349,7 +1349,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1495,7 +1495,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="36">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -1717,7 +1717,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="24">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="14" t="s">
         <v>115</v>
       </c>
       <c r="B49" s="6" t="s">
